--- a/demo_blazesite/src/main/resources/datas/Demo_Blazesite.xlsx
+++ b/demo_blazesite/src/main/resources/datas/Demo_Blazesite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Username</t>
   </si>
@@ -23,18 +23,36 @@
     <t>Password</t>
   </si>
   <si>
-    <t>dev</t>
+    <t>anu</t>
   </si>
   <si>
     <t>Dev@12</t>
   </si>
   <si>
-    <t>swg</t>
+    <t>manu</t>
   </si>
   <si>
     <t>swg@11</t>
   </si>
   <si>
+    <t>banu</t>
+  </si>
+  <si>
+    <t>lkj@37</t>
+  </si>
+  <si>
+    <t>vanu</t>
+  </si>
+  <si>
+    <t>mng@45</t>
+  </si>
+  <si>
+    <t>thenu</t>
+  </si>
+  <si>
+    <t>then@11</t>
+  </si>
+  <si>
     <t>Mail</t>
   </si>
   <si>
@@ -44,7 +62,7 @@
     <t>Message</t>
   </si>
   <si>
-    <t>abc@gmail.com</t>
+    <t>alfin.anthonyraj@atmecs.com</t>
   </si>
   <si>
     <t>abc</t>
@@ -53,10 +71,19 @@
     <t>Good One</t>
   </si>
   <si>
-    <t>def@gmail.com</t>
+    <t>shanealfin720@gmail.com</t>
   </si>
   <si>
     <t>def</t>
+  </si>
+  <si>
+    <t>lkj</t>
+  </si>
+  <si>
+    <t>mnh</t>
+  </si>
+  <si>
+    <t>bvc</t>
   </si>
 </sst>
 </file>
@@ -64,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -83,18 +110,25 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,14 +136,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,24 +150,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,8 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,67 +204,59 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,187 +265,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,6 +462,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,9 +506,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,32 +545,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,177 +562,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,23 +1036,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1023,7 +1060,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1031,14 +1068,41 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Dev@12"/>
     <hyperlink ref="B3" r:id="rId2" display="swg@11"/>
+    <hyperlink ref="B4" r:id="rId3" display="lkj@37"/>
+    <hyperlink ref="B5" r:id="rId4" display="mng@45"/>
+    <hyperlink ref="B6" r:id="rId5" display="then@11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1048,56 +1112,92 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="18.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="17.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+      <c r="A2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
+      <c r="A3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="abc@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="def@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="alfin.anthonyraj@atmecs.com" tooltip="mailto:alfin.anthonyraj@atmecs.com"/>
+    <hyperlink ref="A4" r:id="rId1" display="alfin.anthonyraj@atmecs.com" tooltip="mailto:alfin.anthonyraj@atmecs.com"/>
+    <hyperlink ref="A6" r:id="rId1" display="alfin.anthonyraj@atmecs.com" tooltip="mailto:alfin.anthonyraj@atmecs.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="shanealfin720@gmail.com" tooltip="mailto:shanealfin720@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId2" display="shanealfin720@gmail.com" tooltip="mailto:shanealfin720@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
